--- a/biology/Zoologie/Chrysomelini/Chrysomelini.xlsx
+++ b/biology/Zoologie/Chrysomelini/Chrysomelini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chrysomelini sont une tribu d'insectes coléoptères de la famille des Chrysomelidae et de la sous-famille des Chrysomelinae. Leur forme générale évoque celle des coccinelles, mais un peu plus allongée, souvent avec des lignes de petits creux dans les élytres. Leur couleur variable peut former des points ou des taches ou bien des reflets métalliques irisés. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (27 janv. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (27 janv. 2015) :
 Calligrapha Chevrolat in Dejean, 1836
 Chrysolina Motschulsky, 1860
 Chrysomela Linnaeus, 1758
@@ -529,7 +543,7 @@
 Prasocuris Latreille, 1802
 Trachymela Weise, 1908
 Zygogramma Chevrolat in Dejean, 1836
-Selon BioLib                    (28 janv. 2015)[2] :
+Selon BioLib                    (28 janv. 2015) :
 Calligrapha Chevrolat, 1837
 Chrysolina Motschulsky, 1860
 Chrysomela Linnaeus, 1758
